--- a/xlsx-templates/zichan_baofei.xlsx
+++ b/xlsx-templates/zichan_baofei.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F430B3F1-89F7-A44A-B3D8-34F4FC6E28CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45880" yWindow="460" windowWidth="22920" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>中心/事业部负责人意见</t>
   </si>
@@ -79,12 +80,20 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人：无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,14 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋_GB2312"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋_GB2312"/>
@@ -131,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,11 +186,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +267,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,13 +280,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +309,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -497,17 +579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.83203125" customWidth="1"/>
@@ -515,45 +597,45 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="27" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="33" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -562,55 +644,104 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="50" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="22" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="50" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="23" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="50" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="23" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="50" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="33" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="30" scale="32" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="97" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>